--- a/test.xlsx
+++ b/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\seer\git_roboshop_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F010D935-FC4C-4BB4-A15F-7970BC1C0986}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3D96427-0FE1-4D08-BA99-4AF73A80867F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,19 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="51">
-  <si>
-    <t>名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="83">
   <si>
     <t>”打开“工具测试</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -51,39 +39,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>能正常改变编辑器页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NO，不符合常规，没有设置最小化功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工具栏各工具能给用户反馈，鼠标盘旋时有反馈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NO,工具栏以下界面只能够通过“平移”图标改变纵轴大小，能够通过这个方法间接隐藏。无法关闭视图和信息界面和打开。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>能预置可操作文件类型，明确文件种类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>“保存”工具测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>能在必要时刻给出信息反馈，用户关闭编辑器后能提醒保存</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NO</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -91,23 +47,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>NO，只设置一个“保存”工具，功能为另存为</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>界面各区域：工具栏，窗口能合理排列，大小安排适当，视图界面，信息界面能改变大小，显示布局，能够被关闭。有明显的方法再次打开各界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>地图显示功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OK,“适配视口”工具。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>能够迅速定位到地图总体界面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -115,47 +55,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>OK，“鸟瞰图”工具。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>点击地图上各元素能显示此元素的信息界面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>地图各元素信息显示界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>“图元”信息界面显示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>能够清晰的观察到地图的层次结构，不同类型的元素能够分门别类排放</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NO，“路径”中LM到AP,LM到LM，AP到LM，AP到AP会混杂在一起；“地标点”中LM和AP混杂。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>能够通过点击元素显示其信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>能够方便查找，设置反序排列按钮等</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>能够通过元素名称定位在地图中位置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>有工具放大或缩小地图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地标点，工作站大小合理，易于区分。单相线，双向线易于区分。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -175,23 +79,154 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>NO，若有中间经过的点则会将中间点也连上</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NO，线条密集区难以区分各线条。LM和AP点无明确区别</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>能在地图上直接增删元素</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>能改变有必要元素的大小</t>
+    <t>测试类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>NO，工作站大小无法改变</t>
+    <t>测试项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地图显示测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地图元素信息显示测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预期结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试软件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">RoboShop </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>软件版本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v2.0.10</t>
+  </si>
+  <si>
+    <t>测试内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>插件功能测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Roboshop编辑器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试开始时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试人员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨杰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试完成时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试目的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件读取和保存功能测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否通过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>易用性测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能预置可打开文件类型，明确文件种类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>易用性测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能直接从连接的机器人中加载地图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信息反馈完善</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户关闭编辑器后能提醒保存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整体界面布局</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能正常改变编辑器页面，可放大缩小，最小化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鼠标盘旋或点击时能触发事件，改变按钮颜色或大小等状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>界面布局合理，名称简洁明了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能改变信息显示界面各组件的相对比例，使用者能方便的调到合适的比例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能够返回到到地图总体界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能改变元素大小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作站只有TF类型。且不可设置其自定义属性</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -199,35 +234,127 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>NO，工作站只有TF类型。且不可设置其自定义属性。</t>
+    <t>一致性测试</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>软件版本</t>
+    <t>右边元素信息栏</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>RoboShop v2.0.10</t>
+    <t>左边图元信息栏</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>功能名称</t>
+    <t>能通过点击元素名称迅速定位到地图上的元素</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Roboshop编辑器</t>
+    <t>信息反馈完善</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>修改时间</t>
+    <t>能通过点击元素获取此元素信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>check人员</t>
+    <t>不同地标点，工作站易于区分。单相线，双向线易于区分。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>杨杰</t>
+    <t>地图上重要的点能明显标注，比如工作站明显</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不同元素间，比如机器人，点和工作站层级明确，方便查找</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>路径”中LM到AP,LM到LM，AP到LM，AP到AP会混杂在一起；“地标点”中LM和AP混杂。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置反序按钮，帮助快速定位到元素</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>若有中间经过的点则会将中间点也连上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能性测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“编辑”工具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“曲线”功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能性测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可通过此功能从一个点连接另一个点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“撤销”功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能够返回或撤销编辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试类型说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试目的说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>版本管理工具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/zdyj3170101136/seer_roboshop_test_excel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“文件读取和保存功能测试”，“界面显示测试”，“地图显示测试”，“地图元素信息显示测试”，“编辑地图工具测试”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>易用性测试：功能设置符合常规，方便使用；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信息反馈完善：操作者执行操作时能获得必要的信息反馈；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一致性测试：是否与软件其他部分保持一致</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>；功能性测试：功能是否正常；</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -235,7 +362,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -248,6 +375,14 @@
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -268,10 +403,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -279,9 +415,13 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -559,62 +699,86 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M569"/>
+  <dimension ref="A1:M558"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.88671875" customWidth="1"/>
+    <col min="1" max="1" width="19.44140625" customWidth="1"/>
     <col min="2" max="2" width="15.5546875" customWidth="1"/>
     <col min="3" max="3" width="19.77734375" customWidth="1"/>
-    <col min="4" max="4" width="23.5546875" customWidth="1"/>
+    <col min="4" max="4" width="27.33203125" customWidth="1"/>
+    <col min="5" max="5" width="23.5546875" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
+        <v>25</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>77</v>
+      </c>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="96.6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C2" s="2">
+        <v>22</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="2">
         <v>43664</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
+      <c r="F2" s="2">
+        <v>43665</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
+      <c r="I2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>76</v>
+      </c>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
@@ -635,8 +799,12 @@
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
+      <c r="A4" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -649,12 +817,22 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
+    <row r="5" spans="1:13" ht="159.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -664,19 +842,11 @@
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>2</v>
-      </c>
+    <row r="6" spans="1:13" ht="117" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -687,22 +857,28 @@
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
     </row>
-    <row r="7" spans="1:13" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="1">
+        <v>14</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="D7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
+        <v>32</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
@@ -710,13 +886,25 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
+    <row r="8" spans="1:13" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -725,21 +913,21 @@
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
     </row>
-    <row r="9" spans="1:13" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="1">
-        <v>1</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>13</v>
+    <row r="9" spans="1:13" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1">
+        <v>2</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
+        <v>39</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -748,19 +936,23 @@
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
     </row>
-    <row r="10" spans="1:13" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
-      <c r="B10" s="1">
-        <v>2</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>15</v>
+      <c r="B10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
+        <v>41</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
@@ -769,19 +961,21 @@
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
     </row>
-    <row r="11" spans="1:13" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="1">
-        <v>1</v>
-      </c>
-      <c r="C11" s="1"/>
+    <row r="11" spans="1:13" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1">
+        <v>2</v>
+      </c>
       <c r="D11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
+        <v>36</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
@@ -790,19 +984,25 @@
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
     </row>
-    <row r="12" spans="1:13" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1">
+    <row r="12" spans="1:13" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>6</v>
+      <c r="B12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
+        <v>36</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
@@ -813,17 +1013,19 @@
     </row>
     <row r="13" spans="1:13" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
-      <c r="B13" s="1">
-        <v>3</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>8</v>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1">
+        <v>2</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
+        <v>41</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
@@ -832,19 +1034,21 @@
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
     </row>
-    <row r="14" spans="1:13" ht="120.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
-      <c r="B14" s="1">
-        <v>4</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>17</v>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1">
+        <v>3</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
+        <v>41</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -853,13 +1057,21 @@
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
+      <c r="C15" s="1">
+        <v>4</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
@@ -900,19 +1112,23 @@
     </row>
     <row r="18" spans="1:13" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="1">
         <v>1</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D18" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
+        <v>36</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
@@ -921,19 +1137,21 @@
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
     </row>
-    <row r="19" spans="1:13" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
-      <c r="B19" s="1">
+      <c r="B19" s="1"/>
+      <c r="C19" s="1">
         <v>2</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="D19" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
+        <v>36</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
@@ -942,19 +1160,21 @@
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
     </row>
-    <row r="20" spans="1:13" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
-      <c r="B20" s="1">
+      <c r="B20" s="1"/>
+      <c r="C20" s="1">
         <v>3</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="D20" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
+        <v>36</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
@@ -963,19 +1183,21 @@
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
     </row>
-    <row r="21" spans="1:13" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
-      <c r="B21" s="1">
+      <c r="B21" s="1"/>
+      <c r="C21" s="1">
         <v>4</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="D21" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
+        <v>36</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
@@ -984,19 +1206,21 @@
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
     </row>
-    <row r="22" spans="1:13" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
-      <c r="B22" s="1">
+      <c r="B22" s="1"/>
+      <c r="C22" s="1">
         <v>5</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="D22" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F22" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
@@ -1005,19 +1229,21 @@
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
     </row>
-    <row r="23" spans="1:13" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
-      <c r="B23" s="1">
+      <c r="B23" s="1"/>
+      <c r="C23" s="1">
         <v>6</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="D23" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
+        <v>36</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
@@ -1026,19 +1252,21 @@
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
     </row>
-    <row r="24" spans="1:13" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
-      <c r="B24" s="1">
+      <c r="B24" s="1"/>
+      <c r="C24" s="1">
         <v>7</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="D24" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
+        <v>36</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
@@ -1047,13 +1275,21 @@
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
+      <c r="C25" s="1">
+        <v>8</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
@@ -1094,19 +1330,23 @@
     </row>
     <row r="28" spans="1:13" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B28" s="1">
+        <v>17</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28" s="1">
         <v>1</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="D28" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
+      <c r="F28" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
@@ -1117,17 +1357,19 @@
     </row>
     <row r="29" spans="1:13" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
-      <c r="B29" s="1">
+      <c r="B29" s="1"/>
+      <c r="C29" s="1">
         <v>2</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="D29" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
+        <v>36</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
@@ -1136,20 +1378,24 @@
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
     </row>
-    <row r="30" spans="1:13" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" ht="69" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
-      <c r="B30" s="1">
+      <c r="B30" s="1"/>
+      <c r="C30" s="1">
         <v>3</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="D30" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
+        <v>52</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
@@ -1172,13 +1418,23 @@
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
+      <c r="B32" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C32" s="1">
+        <v>1</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
@@ -1187,13 +1443,21 @@
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
+      <c r="C33" s="1">
+        <v>2</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
@@ -1202,14 +1466,24 @@
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" ht="165.6" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
+      <c r="C34" s="1">
+        <v>3</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
@@ -1217,13 +1491,21 @@
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
+      <c r="C35" s="1">
+        <v>4</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
@@ -1232,14 +1514,28 @@
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
+    <row r="36" spans="1:13" ht="69" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36" s="1">
+        <v>1</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
@@ -1247,14 +1543,26 @@
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
+      <c r="B37" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C37" s="1">
+        <v>1</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
@@ -1262,21 +1570,23 @@
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
     </row>
-    <row r="38" spans="1:13" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B38" s="1">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C38" s="1">
         <v>1</v>
       </c>
-      <c r="C38" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="D38" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
+        <v>67</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
@@ -1285,17 +1595,11 @@
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
     </row>
-    <row r="39" spans="1:13" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
-      <c r="B39" s="1">
-        <v>2</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
@@ -1306,17 +1610,11 @@
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
     </row>
-    <row r="40" spans="1:13" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
-      <c r="B40" s="1">
-        <v>3</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
@@ -1327,17 +1625,11 @@
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
     </row>
-    <row r="41" spans="1:13" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
-      <c r="B41" s="1">
-        <v>4</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
@@ -1423,19 +1715,11 @@
       <c r="L46" s="1"/>
       <c r="M46" s="1"/>
     </row>
-    <row r="47" spans="1:13" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B47" s="1">
-        <v>1</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>37</v>
-      </c>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
@@ -9097,175 +9381,14 @@
       <c r="M557" s="1"/>
     </row>
     <row r="558" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A558" s="1"/>
-      <c r="B558" s="1"/>
       <c r="C558" s="1"/>
-      <c r="D558" s="1"/>
-      <c r="E558" s="1"/>
-      <c r="F558" s="1"/>
-      <c r="G558" s="1"/>
-      <c r="H558" s="1"/>
-      <c r="I558" s="1"/>
-      <c r="J558" s="1"/>
-      <c r="K558" s="1"/>
-      <c r="L558" s="1"/>
-      <c r="M558" s="1"/>
-    </row>
-    <row r="559" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A559" s="1"/>
-      <c r="B559" s="1"/>
-      <c r="C559" s="1"/>
-      <c r="D559" s="1"/>
-      <c r="E559" s="1"/>
-      <c r="F559" s="1"/>
-      <c r="G559" s="1"/>
-      <c r="H559" s="1"/>
-      <c r="I559" s="1"/>
-      <c r="J559" s="1"/>
-      <c r="K559" s="1"/>
-      <c r="L559" s="1"/>
-      <c r="M559" s="1"/>
-    </row>
-    <row r="560" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A560" s="1"/>
-      <c r="B560" s="1"/>
-      <c r="C560" s="1"/>
-      <c r="D560" s="1"/>
-      <c r="E560" s="1"/>
-      <c r="F560" s="1"/>
-      <c r="G560" s="1"/>
-      <c r="H560" s="1"/>
-      <c r="I560" s="1"/>
-      <c r="J560" s="1"/>
-      <c r="K560" s="1"/>
-      <c r="L560" s="1"/>
-      <c r="M560" s="1"/>
-    </row>
-    <row r="561" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A561" s="1"/>
-      <c r="B561" s="1"/>
-      <c r="C561" s="1"/>
-      <c r="D561" s="1"/>
-      <c r="E561" s="1"/>
-      <c r="F561" s="1"/>
-      <c r="G561" s="1"/>
-      <c r="H561" s="1"/>
-      <c r="I561" s="1"/>
-      <c r="J561" s="1"/>
-      <c r="K561" s="1"/>
-      <c r="L561" s="1"/>
-      <c r="M561" s="1"/>
-    </row>
-    <row r="562" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A562" s="1"/>
-      <c r="B562" s="1"/>
-      <c r="C562" s="1"/>
-      <c r="D562" s="1"/>
-      <c r="E562" s="1"/>
-      <c r="F562" s="1"/>
-      <c r="G562" s="1"/>
-      <c r="H562" s="1"/>
-      <c r="I562" s="1"/>
-      <c r="J562" s="1"/>
-      <c r="K562" s="1"/>
-      <c r="L562" s="1"/>
-      <c r="M562" s="1"/>
-    </row>
-    <row r="563" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A563" s="1"/>
-      <c r="B563" s="1"/>
-      <c r="C563" s="1"/>
-      <c r="D563" s="1"/>
-      <c r="E563" s="1"/>
-      <c r="F563" s="1"/>
-      <c r="G563" s="1"/>
-      <c r="H563" s="1"/>
-      <c r="I563" s="1"/>
-      <c r="J563" s="1"/>
-      <c r="K563" s="1"/>
-      <c r="L563" s="1"/>
-      <c r="M563" s="1"/>
-    </row>
-    <row r="564" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A564" s="1"/>
-      <c r="B564" s="1"/>
-      <c r="C564" s="1"/>
-      <c r="D564" s="1"/>
-      <c r="E564" s="1"/>
-      <c r="F564" s="1"/>
-      <c r="G564" s="1"/>
-      <c r="H564" s="1"/>
-      <c r="I564" s="1"/>
-      <c r="J564" s="1"/>
-      <c r="K564" s="1"/>
-      <c r="L564" s="1"/>
-      <c r="M564" s="1"/>
-    </row>
-    <row r="565" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A565" s="1"/>
-      <c r="B565" s="1"/>
-      <c r="C565" s="1"/>
-      <c r="D565" s="1"/>
-      <c r="E565" s="1"/>
-      <c r="F565" s="1"/>
-      <c r="G565" s="1"/>
-      <c r="H565" s="1"/>
-      <c r="I565" s="1"/>
-      <c r="J565" s="1"/>
-      <c r="K565" s="1"/>
-      <c r="L565" s="1"/>
-      <c r="M565" s="1"/>
-    </row>
-    <row r="566" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A566" s="1"/>
-      <c r="B566" s="1"/>
-      <c r="C566" s="1"/>
-      <c r="D566" s="1"/>
-      <c r="E566" s="1"/>
-      <c r="F566" s="1"/>
-      <c r="G566" s="1"/>
-      <c r="H566" s="1"/>
-      <c r="I566" s="1"/>
-      <c r="J566" s="1"/>
-      <c r="K566" s="1"/>
-      <c r="L566" s="1"/>
-      <c r="M566" s="1"/>
-    </row>
-    <row r="567" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A567" s="1"/>
-      <c r="B567" s="1"/>
-      <c r="C567" s="1"/>
-      <c r="D567" s="1"/>
-      <c r="E567" s="1"/>
-      <c r="F567" s="1"/>
-      <c r="G567" s="1"/>
-      <c r="H567" s="1"/>
-      <c r="I567" s="1"/>
-      <c r="J567" s="1"/>
-      <c r="K567" s="1"/>
-      <c r="L567" s="1"/>
-      <c r="M567" s="1"/>
-    </row>
-    <row r="568" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A568" s="1"/>
-      <c r="B568" s="1"/>
-      <c r="C568" s="1"/>
-      <c r="D568" s="1"/>
-      <c r="E568" s="1"/>
-      <c r="F568" s="1"/>
-      <c r="G568" s="1"/>
-      <c r="H568" s="1"/>
-      <c r="I568" s="1"/>
-      <c r="J568" s="1"/>
-      <c r="K568" s="1"/>
-      <c r="L568" s="1"/>
-      <c r="M568" s="1"/>
-    </row>
-    <row r="569" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C569" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="J1" r:id="rId1" display="https://github.com/zdyj3170101136/seer_roboshop_test_excel" xr:uid="{EF8C80E8-054C-45DE-8FD8-93AB46816295}"/>
+    <hyperlink ref="J2" r:id="rId2" xr:uid="{3CA73EDC-68B6-4F10-812B-D97A8EE7CFCB}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
